--- a/WAZIR_APRIL_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_APRIL_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
   </bookViews>
   <sheets>
-    <sheet name="MARCH_2024" sheetId="6" r:id="rId1"/>
+    <sheet name="APRIL_2024" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MARCH_2024!$A$1:$G$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">APRIL_2024!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -108,21 +108,12 @@
     <t>23ME05</t>
   </si>
   <si>
-    <t>22ME04</t>
-  </si>
-  <si>
-    <t>21ME20</t>
-  </si>
-  <si>
     <t>ME (Electrical Engineering)</t>
   </si>
   <si>
     <t>Spring 2024</t>
   </si>
   <si>
-    <t>Feburary-March</t>
-  </si>
-  <si>
     <t>Power System Protection</t>
   </si>
   <si>
@@ -130,6 +121,18 @@
   </si>
   <si>
     <t>EE-503</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>23ME09</t>
+  </si>
+  <si>
+    <t>22ME03</t>
+  </si>
+  <si>
+    <t>21ME19</t>
   </si>
 </sst>
 </file>
@@ -408,6 +411,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -419,33 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +488,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -787,10 +790,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -806,24 +809,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -831,20 +834,20 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="D3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -852,20 +855,20 @@
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="D4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -874,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="27"/>
     </row>
@@ -884,23 +887,23 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="D6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="28"/>
@@ -912,14 +915,14 @@
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="D8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -929,31 +932,31 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="14">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E10" s="15">
-        <v>24</v>
-      </c>
-      <c r="F10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
@@ -963,12 +966,12 @@
       <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
@@ -985,14 +988,14 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1010,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" ref="F14:F22" si="0">SUM(D14:E14)</f>
+        <f t="shared" ref="F14:F23" si="0">SUM(D14:E14)</f>
         <v>6</v>
       </c>
       <c r="G14" s="21">
@@ -1037,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" ref="G15:G22" si="1">(F15/6)*100</f>
+        <f t="shared" ref="G15:G23" si="1">(F15/6)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1050,18 +1053,18 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="17">
         <v>3</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1076,15 +1079,15 @@
         <v>3</v>
       </c>
       <c r="E17" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1156,92 +1159,116 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
-        <v>8</v>
-      </c>
+    <row r="21" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="19"/>
       <c r="B21" s="17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="17">
         <v>3</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="F21" si="2">SUM(D21:E21)</f>
+        <v>6</v>
       </c>
       <c r="G21" s="21">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" ref="G21" si="3">(F21/6)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="19">
-        <v>9</v>
+      <c r="A22" s="18">
+        <v>8</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="17">
         <v>3</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="9" t="s">
+      <c r="A23" s="19">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="17">
+        <v>3</v>
+      </c>
+      <c r="E23" s="17">
+        <v>3</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="13" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D26" s="3"/>
-    </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D27" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:F13"/>
@@ -1252,9 +1279,6 @@
     <mergeCell ref="D3:O3"/>
     <mergeCell ref="D4:O4"/>
     <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.39370078740157483"/>
